--- a/target/test-classes/Files/SampleExcel.xlsx
+++ b/target/test-classes/Files/SampleExcel.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="60">
   <si>
     <t xml:space="preserve">EmailID</t>
   </si>
@@ -195,6 +195,12 @@
   </si>
   <si>
     <t>gjLE47+=</t>
+  </si>
+  <si>
+    <t>RSVAPMDPAZ@gmail.com</t>
+  </si>
+  <si>
+    <t>zoOH86^+</t>
   </si>
 </sst>
 </file>
@@ -319,7 +325,7 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B29"/>
+  <dimension ref="A1:B30"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="D12" activeCellId="0" sqref="D12"/>
@@ -563,6 +569,14 @@
         <v>57</v>
       </c>
     </row>
+    <row r="30">
+      <c r="A30" t="s">
+        <v>58</v>
+      </c>
+      <c r="B30" t="s">
+        <v>59</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
